--- a/Datasets/CLEANED/Part3.xlsx
+++ b/Datasets/CLEANED/Part3.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sel12\git\GITHUB DESKTOP\ML_PROJECT\Datasets\CLEANED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF1238B-20E1-451D-BE8E-6A7BA68E028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="297">
   <si>
     <t>NSL</t>
   </si>
@@ -112,26 +121,12 @@
     <t>tel a signal fault has been reported at woodlands north trains are moving slower between woodlands north and caldecott in both directions smrt</t>
   </si>
   <si>
-    <t>[TEL] UPDATE: Free regular bus services are available between Woodlands North and Caldecott.
-- SMRT</t>
-  </si>
-  <si>
-    <t>tel update free regular bus services are available between woodlands north and caldecott smrt</t>
-  </si>
-  <si>
     <t>NEL, SPL, DTL</t>
   </si>
   <si>
-    <t>Operational hours of the DTL, NEL, Sengkang-Punggol LRT and 22 bus services - 60A, 63M, 114A, 181, 222, 225G, 228, 229, 232, 238, 240, 241, 243G, 291, 292, 293, 315, 325, 410W, 804, 812 &amp; 974A - will be extended on the eve of Hari Raya Haji, 9 July 2022. https://bit.ly/3NF0DuS
-- SBS Transit</t>
-  </si>
-  <si>
     <t>SBS Transit</t>
   </si>
   <si>
-    <t>operational hours of the dtl nel sengkangpunggol lrt and 22 bus services 60a 63m 114a 181 222 225g 228 229 232 238 240 241 243g 291 292 293 315 325 410w 804 812 974a will be extended on the eve of hari raya haji 9 july 2022 sbs transit</t>
-  </si>
-  <si>
     <t>CCL</t>
   </si>
   <si>
@@ -159,13 +154,6 @@
     <t>ccl due to a track fault additional 10 mins travelling time between shuttle train service is available at platform b passengers are advised to use dtl to continue their journey between and smrt</t>
   </si>
   <si>
-    <t>We will be conducting a security exercise on Monday, 6 June 2022, 10am to 4pm at Bugis Station. Some commuters entering the station may have to go through security screening. Train services will continue to operate as usual.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting a security exercise on monday 6 june 2022 10am to 4pm at bugis station some commuters entering the station may have to go through security screening train services will continue to operate as usual sbs transit</t>
-  </si>
-  <si>
     <t>CCL, EWL</t>
   </si>
   <si>
@@ -229,65 +217,6 @@
   </si>
   <si>
     <t>bplrt update free regular bus services between and panjang are available if your journey has been affected you may download an etravel chit as proof of your travel at smrt</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on Sengkang-Punggol LRT system on Sat &amp; Sun from 21 May to 25 September 2022 (exclude 9 &amp; 10 July). Train service will operate as usual on one platform while the other will be closed for works. https://bit.ly/37GNhPD
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on sengkangpunggol lrt system on sat sun from 21 may to 25 september 2022 exclude 9 10 july train service will operate as usual on one platform while the other will be closed for works sbs transit</t>
-  </si>
-  <si>
-    <t>BPL, NEL, EWL, TEL, CCL, NSL, DTL</t>
-  </si>
-  <si>
-    <t>MRT Extension Cheatsheet (Sat 30 April &amp; Mon 2 May)
-NSL
-- towards Both Directions: departs City Hall at 12.30am
-EWL
-- towards Both Directions: departs City Hall at 12.30am
-CCL
-- towards Harbourfront: departs Dhoby Ghaut at 11.55pm
-- towards Dhoby Ghaut: departs Harbourfront at 11.30pm
-NEL
-- towards Punggol: departs Dhoby Ghaut at 12.40am
-- towards HarbourFront: departs Dhoby Ghaut at 12.27am
-DTL
-- towards Expo: departs Chinatown at 12.36am
-- towards Bukit Panjang: departs Chinatown at 12.37am
-TEL
-- towards Woodlands North/Springleaf: departs Caldecott at 12.05am/12.13am
-- towards Caldecott: departs Woodlands North at 11.57pm
-SKLRT
-- departs Sengkang at 1.06am
-PGLRT
-- departs Punggol at 1.08am
-BPLRT
-- departs Choa Chu Kang at 11.30pm ⚠️</t>
-  </si>
-  <si>
-    <t>mrt extension cheatsheet sat 30 april mon 2 may nsl towards both directions departs city hall at 1230am ewl towards both directions departs city hall at 1230am ccl towards harbourfront departs dhoby ghaut at 1155pm towards dhoby ghaut departs harbourfront at 1130pm nel towards punggol departs dhoby ghaut at 1240am towards harbourfront departs dhoby ghaut at 1227am dtl towards expo departs chinatown at 1236am towards bukit panjang departs chinatown at 1237am tel towards woodlands northspringleaf departs caldecott at 1205am1213am towards caldecott departs woodlands north at 1157pm sklrt departs sengkang at 106am pglrt departs punggol at 108am bplrt departs choa chu kang at 1130pm</t>
-  </si>
-  <si>
-    <t>Maintenance works on the power system at SW2 Farmway Station will be conducted on Thu, 12 May 2022 from 1.30am to 4.00am. A section of Anchorvale Street (towards Sengkang Sports Centre) will be closed during this period to facilitate the maintenance works. https://bit.ly/3vlW3LW
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>maintenance works on the power system at sw2 farmway station will be conducted on thu 12 may 2022 from 130am to 400am a section of anchorvale street towards sengkang sports centre will be closed during this period to facilitate the maintenance works sbs transit</t>
-  </si>
-  <si>
-    <t>Operational hours of DTL, NEL, Sengkang-Punggol LRT, and 22 bus services - 60A, 63M, 114A, 181, 222, 225G, 228, 229, 232, 238, 240, 241, 243G, 291, 292, 293, 315, 325, 410W, 804, 812, and 974A - will be extended on 30 April and 2 May 2022. https://bit.ly/3K7k5yl
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>operational hours of dtl nel sengkangpunggol lrt and 22 bus services 60a 63m 114a 181 222 225g 228 229 232 238 240 241 243g 291 292 293 315 325 410w 804 812 and 974a will be extended on 30 april and 2 may 2022 sbs transit</t>
-  </si>
-  <si>
-    <t>[CCL] CLEARED: Fault cleared, trains service progressively resuming. Free regular bus and bridging bus services between #Promenade and #Serangoon are still available.
-- SMRT</t>
-  </si>
-  <si>
-    <t>ccl cleared fault cleared trains service progressively resuming free regular bus and bridging bus services between and are still available smrt</t>
   </si>
   <si>
     <t>[CCL] UPDATE: Additional 30mins train travel time between #Stadium and #Bartley due to a train fault. Free regular bus and bridging bus services between #Promenade and #Serangoon are available.
@@ -322,13 +251,6 @@
     <t>NEL</t>
   </si>
   <si>
-    <t>NEL delay - To assist with your journey, free bus rides are available at designated bus stops near affected NEL stns btwn Serangoon &amp; Punggol.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>nel delay to assist with your journey free bus rides are available at designated bus stops near affected nel stns btwn serangoon punggol sbs transit</t>
-  </si>
-  <si>
     <t>NEL svc is delayed due to a train fault at Sengkang. Additional travel time of about 15 minutes may be expected. We are sorry.
 - SBS Transit</t>
   </si>
@@ -339,63 +261,6 @@
     <t>SPL</t>
   </si>
   <si>
-    <t>Update: we have completed maintenance works on the Sengkang LRT today and it will be operating as usual tomorrow, Sunday, 23 January 2022. https://bit.ly/3KwIHC9
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>update we have completed maintenance works on the sengkang lrt today and it will be operating as usual tomorrow sunday 23 january 2022 sbs transit</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Sengkang LRT system this weekend - 22 and 23 January 2022. Train service will operate as usual on one platform while the other will be closed for works. https://bit.ly/3rBHtga
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkang lrt system this weekend 22 and 23 january 2022 train service will operate as usual on one platform while the other will be closed for works sbs transit</t>
-  </si>
-  <si>
-    <t>MRT Extension Cheatsheet (31 Dec)
-NSL
-- towards Both Directions: departs City Hall at 1am
-EWL
-- towards Both Directions: departs City Hall at 1am
-CCL
-- towards Harbourfront: departs Dhoby Ghaut at 12.27am
-- towards Dhoby Ghaut: departs Harbourfront at 12.24am
-NEL
-- towards Punggol: departs Dhoby Ghaut at 1.10am
-- towards Harbourfront: departs Dhoby Ghaut at 12.57am
-DTL
-- towards Expo: departs Chinatown at 1.11am
-- towards Bukit Panjang: departs Chinatown at 1.15am
-TEL
-- towards Woodlands North: departs Caldecott at 12.35am
-- towards Caldecott: departs Woodlands North at 12.27am
-SKLRT
-- departs Sengkang at 1.37am
-PGLRT
-- departs Punggol at 1.39am
-BPLRT
-- departs Choa Chu Kang at 11.30pm ⚠️
-We wish everyone a happy new year. Amid the pandemic, may 2022 be a wonderful new year for you and your loved ones.</t>
-  </si>
-  <si>
-    <t>mrt extension cheatsheet 31 dec nsl towards both directions departs city hall at 1am ewl towards both directions departs city hall at 1am ccl towards harbourfront departs dhoby ghaut at 1227am towards dhoby ghaut departs harbourfront at 1224am nel towards punggol departs dhoby ghaut at 110am towards harbourfront departs dhoby ghaut at 1257am dtl towards expo departs chinatown at 111am towards bukit panjang departs chinatown at 115am tel towards woodlands north departs caldecott at 1235am towards caldecott departs woodlands north at 1227am sklrt departs sengkang at 137am pglrt departs punggol at 139am bplrt departs choa chu kang at 1130pm we wish everyone a happy new year amid the pandemic may 2022 be a wonderful new year for you and your loved ones</t>
-  </si>
-  <si>
-    <t>Svc hrs on the DTL, NEL &amp; SPLRT will be extended by about 1 hr on New Year’s Eve, 31 Dec. Last DTL train will depart Bukit Panjang at 12.37am &amp; Expo at 12.41am. Last NEL train will depart Punggol at 12.32am &amp; Harbourfront at 1am. SPLRT will run until the last NEL train arrives.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>svc hrs on the dtl nel splrt will be extended by about 1 hr on new years eve 31 dec last dtl train will depart bukit panjang at 1237am expo at 1241am last nel train will depart punggol at 1232am harbourfront at 1am splrt will run until the last nel train arrives sbs transit</t>
-  </si>
-  <si>
-    <t>If you are taking the MRT train from the NEL Serangoon Station, please factor in more time as we are conducting a security exercise at the station. This will be on Tuesday, 7 December 2021, from 10am to 4pm. Do note that train services will continue to operate as usual.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>if you are taking the mrt train from the nel serangoon station please factor in more time as we are conducting a security exercise at the station this will be on tuesday 7 december 2021 from 10am to 4pm do note that train services will continue to operate as usual sbs transit</t>
-  </si>
-  <si>
     <t>No Punggol LRT services due to a signalling fault. Free regular bus services are available at designated stops. We are sorry for the inconvenience caused.
 - SBS Transit</t>
   </si>
@@ -483,13 +348,6 @@
     <t>ccl update additional 30mins train travel time between and due to a signal fault smrt</t>
   </si>
   <si>
-    <t>We will be conducting maintenance works on Sengkang-Punggol LRT system on 19 weekends, from 22 May to 26 September 2021. Train service will operate as usual on one platform while the other will be closed for works. https://bit.ly/3hrskL4
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on sengkangpunggol lrt system on 19 weekends from 22 may to 26 september 2021 train service will operate as usual on one platform while the other will be closed for works sbs transit</t>
-  </si>
-  <si>
     <t>NEL service is delayed for both direction due to a signalling fault at Farrer Park NE8. Additional travel time of about 15 minutes may be expected. We are sorry for the inconvenience caused.
 - SBS Transit</t>
   </si>
@@ -511,44 +369,6 @@
     <t>nel service towards harbourfront ne1 is delayed due to a signalling fault at farrer park ne8 additional travel time of about 15 minutes may be expected we are sorry for the inconvenience caused sbs transit</t>
   </si>
   <si>
-    <t>NEL, SPL</t>
-  </si>
-  <si>
-    <t>NEL stations between NE1 HarbourFront &amp; NE6 Dhoby Ghaut will close at about 11pm this Fri &amp; Sat, 23 &amp; 24 Apr. Shuttle 22 will serve these stations. NEL service between NE6 Dhoby Ghaut &amp; NE17 Punggol, Sengkang-Punggol LRT services as well as Services 315 &amp; 325 will also run later. https://bit.ly/3dyLQD5
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>nel stations between ne1 harbourfront ne6 dhoby ghaut will close at about 11pm this fri sat 23 24 apr shuttle 22 will serve these stations nel service between ne6 dhoby ghaut ne17 punggol sengkangpunggol lrt services as well as services 315 325 will also run later sbs transit</t>
-  </si>
-  <si>
-    <t>To carry out intensified replacement works on the Overhead Power System, NEL stations between NE1 HarbourFront and NE6 Dhoby Ghaut will close earlier at about 11.00pm this Friday &amp; Saturday, 23 &amp; 24 April 2021. Shuttle Bus 22 will be in operation to serve the closed stations. https://bit.ly/3tsy0HL
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>to carry out intensified replacement works on the overhead power system nel stations between ne1 harbourfront and ne6 dhoby ghaut will close earlier at about 1100pm this friday saturday 23 24 april 2021 shuttle bus 22 will be in operation to serve the closed stations sbs transit</t>
-  </si>
-  <si>
-    <t>NEL stations between NE12 Serangoon &amp; NE17 Punggol will close at about 11pm this Fri &amp; Sat, 16 &amp; 17 April. Bus Shuttle 21 will serve these stations. NEL service between NE12 Serangoon &amp; NE1 HarbourFront, Sengkang-Punggol LRT services as well as Service 325 will also run later. https://bit.ly/3acjBI6
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>nel stations between ne12 serangoon ne17 punggol will close at about 11pm this fri sat 16 17 april bus shuttle 21 will serve these stations nel service between ne12 serangoon ne1 harbourfront sengkangpunggol lrt services as well as service 325 will also run later sbs transit</t>
-  </si>
-  <si>
-    <t>To carry out intensified replacement works on the Overhead Power System, NEL stations between NE12 Serangoon &amp; NE17 Punggol will close earlier at about 11.00pm this Fri &amp; Sat, 16 &amp; 17 Apr 2021. Shuttle Bus 21 will serve the closed stations. https://bit.ly/325K7P1
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>to carry out intensified replacement works on the overhead power system nel stations between ne12 serangoon ne17 punggol will close earlier at about 1100pm this fri sat 16 17 apr 2021 shuttle bus 21 will serve the closed stations sbs transit</t>
-  </si>
-  <si>
-    <t>To carry out intensified replacement works on the Overhead Power System, NEL stations between NE12 Serangoon &amp; NE17 Punggol will close earlier at about 11.00pm on Fri &amp; Sat, 9 &amp; 10 Apr 2021. Shuttle Bus 21 will serve the closed stations.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>to carry out intensified replacement works on the overhead power system nel stations between ne12 serangoon ne17 punggol will close earlier at about 1100pm on fri sat 9 10 apr 2021 shuttle bus 21 will serve the closed stations sbs transit</t>
-  </si>
-  <si>
     <t>[NSL] UPDATE: Due to a signalling fault, pls add 45mins train travel time btwn #RafflesPlace &amp; #Bishan. Free regular bus &amp; bridging bus svcs are available. Commuters heading towards the city are advised to take the EWL via Jurong East, CCL via Bishan, NEL and DTL.
 - SMRT</t>
   </si>
@@ -609,20 +429,6 @@
   </si>
   <si>
     <t>nsl due to a signalling fault pls add 25mins train travel time btwn and free bus and free bridging bus services are available between toa payoh and marina south pier smrt</t>
-  </si>
-  <si>
-    <t>Update: Train svc is available btw HarbourFront &amp; Serangoon. Free bus rides are available btw Serangoon &amp; Punggol. Recovery work is still in progress. We are sorry.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>update train svc is available btw harbourfront serangoon free bus rides are available btw serangoon punggol recovery work is still in progress we are sorry sbs transit</t>
-  </si>
-  <si>
-    <t>Train svc is available btwn HarbourFront &amp; Serangoon and bwtn Sengkang &amp; Punggol. Free bus rides are available btwn Serangoon &amp; Punggol. We are sorry.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>train svc is available btwn harbourfront serangoon and bwtn sengkang punggol free bus rides are available btwn serangoon punggol we are sorry sbs transit</t>
   </si>
   <si>
     <t>No NEL svc between Serangoon NE12 &amp; Sengkang NE16 due to power fault. Free bus rides are available at affected stns. We are sorry.
@@ -660,27 +466,6 @@
     <t>we will be conducting maintenance works on the punggol lrt system this weekend 6 7 march 2021 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 8 march 2021 sbs transit</t>
   </si>
   <si>
-    <t>[UPDATE]: To facilitate the replacement of cables along the Tuas West Extension, 6 stations from Pioneer to Tuas Link and 4 stations from Gul Circle to Tuas Link will be closed on Sundays from 14 Mar to 23 May. Please plan your journey ahead. https://bit.ly/383Zv1E
-- SMRT</t>
-  </si>
-  <si>
-    <t>update to facilitate the replacement of cables along the tuas west extension 6 stations from pioneer to tuas link and 4 stations from gul circle to tuas link will be closed on sundays from 14 mar to 23 may please plan your journey ahead smrt</t>
-  </si>
-  <si>
-    <t>[EWL] UPDATE: Train service btwn #Bugis and #Aljunied is available.
-- SMRT</t>
-  </si>
-  <si>
-    <t>ewl update train service btwn and is available smrt</t>
-  </si>
-  <si>
-    <t>[EWL] UPDATE: Train services btwn #Bugis and #Aljunied have ceased. Free regular and bridging bus services have also ceased. Thank you for your patience and we apologise to all affected commuters.
-- SMRT</t>
-  </si>
-  <si>
-    <t>ewl update train services btwn and have ceased free regular and bridging bus services have also ceased thank you for your patience and we apologise to all affected commuters smrt</t>
-  </si>
-  <si>
     <t>[EWL] UPDATE: No train services btwn #Bugis and #Aljunied. Free regular and free bridging bus are available between Bugis and Aljunied. For alternative travel options, please refer to https://bit.ly/3bCFiBh
 - SMRT</t>
   </si>
@@ -748,13 +533,6 @@
     <t>no service on punggol lrt due to a power fault free regular and bridging bus services are available at designated stops sbs transit</t>
   </si>
   <si>
-    <t>We will be conducting maintenance works on the Punggol LRT system this weekend, 16 &amp; 17 January 2021. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 18 January 2021.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the punggol lrt system this weekend 16 17 january 2021 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 18 january 2021 sbs transit</t>
-  </si>
-  <si>
     <t>[NSL] UPDATE: Fault cleared, train svcs are progressively being restored. Pls add 10mins train travel time btwn #Kranji and #JurongEast.
 - SMRT</t>
   </si>
@@ -790,33 +568,6 @@
     <t>we will be conducting maintenance works on the sengkang lrt system this weekend 9 10 january 2021 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 11 january 2021 sbs transit</t>
   </si>
   <si>
-    <t>Train Extension Cheatsheet (31 Dec)
-NSL
-- towards Both Directions: departs City Hall at 1am
-EWL
-- towards Both Directions: departs City Hall at 1am
-CCL
-- towards Harbourfront: departs Dhoby Ghaut at 12.27am
-- towards Dhoby Ghaut: departs Harbourfront at 12.24am
-NEL
-- towards Punggol: departs Dhoby Ghaut at 1.10am
-- towards Harbourfront: departs Dhoby Ghaut at 12.57am
-DTL
-- towards Both Directions: departs Chinatown at 1.07am
-TEL
-- Early closure at 9pm ⚠️
-SKLRT
-- departs Sengkang at 1.37am
-PGLRT
-- departs Punggol at 1.39am
-BPLRT
-- departs Choa Chu Kang at 11.30pm ⚠️
-Happy new year! May 2021 be a greater year for everyone.</t>
-  </si>
-  <si>
-    <t>train extension cheatsheet 31 dec nsl towards both directions departs city hall at 1am ewl towards both directions departs city hall at 1am ccl towards harbourfront departs dhoby ghaut at 1227am towards dhoby ghaut departs harbourfront at 1224am nel towards punggol departs dhoby ghaut at 110am towards harbourfront departs dhoby ghaut at 1257am dtl towards both directions departs chinatown at 107am tel early closure at 9pm sklrt departs sengkang at 137am pglrt departs punggol at 139am bplrt departs choa chu kang at 1130pm happy new year may 2021 be a greater year for everyone</t>
-  </si>
-  <si>
     <t>We will be conducting maintenance works on the Punggol LRT system this weekend, 2 &amp; 3 January 2021. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 4 January 2021.
 - SBS Transit</t>
   </si>
@@ -862,34 +613,6 @@
     <t>dtl svc is delayed due to a signalling fault additional travel time of up to 15 minutes may be expected from dt35 expo stn to dt24 geylang bahru stn we are sorry sbs transit</t>
   </si>
   <si>
-    <t>Svc hours on DTL, NEL &amp; Sengkang-Punggol LRT (SPLRT) will be extended on 31 Dec. Last NEL train will depart HarbourFront at 1.00am &amp; Punggol at 12.32am. SPLRT will run until the last NEL train arrives. Last DTL train will depart Bukit Panjang &amp; also Expo at 12.34am.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>svc hours on dtl nel sengkangpunggol lrt splrt will be extended on 31 dec last nel train will depart harbourfront at 100am punggol at 1232am splrt will run until the last nel train arrives last dtl train will depart bukit panjang also expo at 1234am sbs transit</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Sengkang LRT system this weekend, 26 &amp; 27 December 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 28 December 2020.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkang lrt system this weekend 26 27 december 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 28 december 2020 sbs transit</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Sengkang LRT system this weekend, 19 &amp; 20 December 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 21 December 2020.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkang lrt system this weekend 19 20 december 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 21 december 2020 sbs transit</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Punggol LRT system this weekend, 12 &amp; 13 December 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 14 December 2020.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the punggol lrt system this weekend 12 13 december 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 14 december 2020 sbs transit</t>
-  </si>
-  <si>
     <t>[TEL] UPDATE: Train service between Woodlands North and Woodlands South has commenced. Free regular bus and bridging bus services are still available.
 - SMRT</t>
   </si>
@@ -954,13 +677,6 @@
     <t>tel update there is no train service between woodlands north and woodlands south please seek alternative transport we are working to recover service smrt</t>
   </si>
   <si>
-    <t>We will be conducting maintenance works on the Sengkang LRT system this weekend, 5 &amp; 6 Dec 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 7 Dec 2020.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkang lrt system this weekend 5 6 dec 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 7 dec 2020 sbs transit</t>
-  </si>
-  <si>
     <t>[NSL] UPDATE: Fault cleared, train svcs are progressively being restored. Pls add 5mins train travel time btwn #MarinaSouthPier and #Newton.
 - SMRT</t>
   </si>
@@ -975,13 +691,6 @@
     <t>nsl due to a track fault near pls add 10mins train travel time btwn and smrt</t>
   </si>
   <si>
-    <t>To facilitate 22kV circuit breaker trip coil replacement works along the Tuas West Extension, 4 MRT stations from Gul Circle to Tuas Link along the East-West Line will close earlier at about 11pm on 21 and 28 November. Please plan your journey ahead. https://bit.ly/3nAmabk
-- SMRT</t>
-  </si>
-  <si>
-    <t>to facilitate 22kv circuit breaker trip coil replacement works along the tuas west extension 4 mrt stations from gul circle to tuas link along the eastwest line will close earlier at about 11pm on 21 and 28 november please plan your journey ahead smrt</t>
-  </si>
-  <si>
     <t>[EWL] UPDATE: Due to a power fault, there is no train svc between #Dover and #TuasLink. Free regular bus services &amp; free bridging bus services are available btwn #Queenstown and #TuasLink. For alternative travel options, please refer to https://bit.ly/3jYQcUQ.
 - SMRT</t>
   </si>
@@ -1052,13 +761,6 @@
     <t>nsl update due to a power fault there is no train services between and free regular bus free bridging bus svcs are available btwn and for alternative travel options please refer to smrt</t>
   </si>
   <si>
-    <t>To facilitate testing works for the introduction of the Bukit Panjang LRT’s (BPLRT) new signalling system, the BPLRT network will be closed on Sundays from 4 to 25 October 2020. https://bit.ly/32FJa0N
-- SMRT</t>
-  </si>
-  <si>
-    <t>to facilitate testing works for the introduction of the bukit panjang lrts bplrt new signalling system the bplrt network will be closed on sundays from 4 to 25 october 2020 smrt</t>
-  </si>
-  <si>
     <t>[EWL]: Due to a train fault, pls add 5mins train travel time btwn #PasirRis and #Aljunied. Train service is progressively returning back to normal. Free regular bus services are still available between Pasir Ris and Bugis.
 - SMRT</t>
   </si>
@@ -1085,20 +787,6 @@
   </si>
   <si>
     <t>ewl due to a train fault pls add 25mins train travel time btwn and free regular bus services are available between bugis station and pasir ris station smrt</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Sengkang/Punggol LRT system this Sunday, 6 September 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 7 September.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkangpunggol lrt system this sunday 6 september 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 7 september sbs transit</t>
-  </si>
-  <si>
-    <t>We will be conducting maintenance works on the Sengkang LRT system this Sunday, 30 August 2020. Train service will operate as usual on one platform while the other will be closed for works. Service on both platforms will commence as usual on Monday, 31 August.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>we will be conducting maintenance works on the sengkang lrt system this sunday 30 august 2020 train service will operate as usual on one platform while the other will be closed for works service on both platforms will commence as usual on monday 31 august sbs transit</t>
   </si>
   <si>
     <t>Due to Track Fault, additional Travelling time of 15 minute expected between Bedok North Station and Expo Station in both direction.
@@ -1199,13 +887,6 @@
     <t>maintenance works will be conducted on the sengkangpunggol lrt systems on sundays from 26 july to 6 september except 9 august train service will continue to operate as usual on one platform while the other platform will start service at 5pm sbs transit</t>
   </si>
   <si>
-    <t>From 20 Jul to 30 Aug, stations from Woodlands North to Woodlands South will close earlier at 9pm daily from Monday to Sunday, and start later at 6.30am every Saturday and Sunday. Please plan your journey ahead of time. https://bit.ly/2OpdGUV 
-- SMRT</t>
-  </si>
-  <si>
-    <t>from 20 jul to 30 aug stations from woodlands north to woodlands south will close earlier at 9pm daily from monday to sunday and start later at 630am every saturday and sunday please plan your journey ahead of time smrt</t>
-  </si>
-  <si>
     <t>[EWL] UPDATE: Fault cleared, train svcs are progressively being restored. Pls add 10mins train travel time from #OutramPark to #Queenstown.
 - SMRT</t>
   </si>
@@ -1214,104 +895,15 @@
 - SMRT</t>
   </si>
   <si>
-    <t>[EWL] UPDATE: Free regular bus svcs between #OutramPark and #Queenstown. Our station staff will assist.
-- SMRT</t>
-  </si>
-  <si>
-    <t>ewl update free regular bus svcs between and our station staff will assist smrt</t>
-  </si>
-  <si>
-    <t>[NSL] UPDATE: Free regular bus svcs btwn #MarinaSouthPier and #Newton. Our station staff will assist.
-- SMRT</t>
-  </si>
-  <si>
     <t>[NSL]: Due to a train fault, pls add 25mins train travel time btwn #Newton and #MarinaSouthPier.
 - SMRT</t>
   </si>
   <si>
-    <t>Trains on the DTL &amp; NEL now operate at a frequency of about 3 mins during peak hours and about 10 mins during off-peak hours and on weekends. The Sengkang-Punggol LRT also operates a single loop service during off-peak hours and on weekends. This will continue until 4 May 2020.
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>trains on the dtl nel now operate at a frequency of about 3 mins during peak hours and about 10 mins during offpeak hours and on weekends the sengkangpunggol lrt also operates a single loop service during offpeak hours and on weekends this will continue until 4 may 2020 sbs transit</t>
-  </si>
-  <si>
-    <t>Due to Circuit Breaker measures, train services would be ending earlier from 17 Apr - 1 June. 
-Last train timings
-NSL
-- towards Jurong East: departs Marina South Pier at 11.25pm
-- towards Marina South Pier: departs Jurong East at 10.20pm
-- towards Kranji: departs Jurong East at 11.57pm
-EWL
-- towards Pasir Ris: departs Tuas Link at 10.39pm
-- towards Tuas Link: departs Pasir Ris at 10.55pm
-- towards Changi Airport: departs Tenah Merah at 11.28pm
-- towards Tenah Merah: departs Changi Airport at 11.40pm (connects with Pasir Ris bound train) (10.56pm to connect with Tuas Link bound train)
-CCL
-- towards Harbourfront: departs Dhoby Ghaut at 10.55pm
-- towards Dhoby Ghaut: departs Harbourfront at 10.30pm
-NEL
-- towards Punggol: departs HarbourFront at 11.30pm
-- towards HarbourFront: departs Punggol at 11.00pm
-DTL
-- towards Expo: departs Bukit Panjang at 10.55pm
-- towards Bukit Panjang: departs Expo at 11.00pm
-TEL
-- towards both directions: departs Woodlands North &amp; Woodlands South at 7.55pm
-SKLRT
-- departs Sengkang at 12.05am
-PGLRT
-- departs Punggol at 12.07am
-BPLRT
-- departs Choa Chu Kang at 11.30pm ⚠️ (no changes)
-We would like to salute all frontliners. ('-'*ゞ
-Please join the fight by staying at home. Stay safe and healthy for your loved ones.
-- Team SG MRT Updates</t>
-  </si>
-  <si>
-    <t>Team SG MRT Updates</t>
-  </si>
-  <si>
-    <t>due to circuit breaker measures train services would be ending earlier from 17 apr 1 june last train timings nsl towards jurong east departs marina south pier at 1125pm towards marina south pier departs jurong east at 1020pm towards kranji departs jurong east at 1157pm ewl towards pasir ris departs tuas link at 1039pm towards tuas link departs pasir ris at 1055pm towards changi airport departs tenah merah at 1128pm towards tenah merah departs changi airport at 1140pm connects with pasir ris bound train 1056pm to connect with tuas link bound train ccl towards harbourfront departs dhoby ghaut at 1055pm towards dhoby ghaut departs harbourfront at 1030pm nel towards punggol departs harbourfront at 1130pm towards harbourfront departs punggol at 1100pm dtl towards expo departs bukit panjang at 1055pm towards bukit panjang departs expo at 1100pm tel towards both directions departs woodlands north woodlands south at 755pm sklrt departs sengkang at 1205am pglrt departs punggol at 1207am bplrt departs choa chu kang at 1130pm no changes we would like to salute all frontliners please join the fight by staying at home stay safe and healthy for your loved ones team sg mrt updates</t>
-  </si>
-  <si>
-    <t>[Update]: Please note that there will be no early closures from 17 to 25 April 2020. Train services will run normally during this period from Bedok to Paya Lebar on the EWL.
-- SMRT</t>
-  </si>
-  <si>
-    <t>update please note that there will be no early closures from 17 to 25 april 2020 train services will run normally during this period from bedok to paya lebar on the ewl smrt</t>
-  </si>
-  <si>
-    <t>From 17 Apr to 4 May, trains on DTL &amp; NEL will operate at a frequency of about 5 minutes during peak hours and about 10 minutes during off-peak hours while the Sengkang-Punggol LRT will operate a single loop service. https://bit.ly/2RE5hyT
-- SBS Transit</t>
-  </si>
-  <si>
-    <t>from 17 apr to 4 may trains on dtl nel will operate at a frequency of about 5 minutes during peak hours and about 10 minutes during offpeak hours while the sengkangpunggol lrt will operate a single loop service sbs transit</t>
-  </si>
-  <si>
-    <t>From 3 Apr to 26 Jul 2020, stations from Woodlands North to Woodlands South will close earlier at 10pm every Friday, Saturday and Sunday, and open later at 6.30am every Saturday and Sunday. Please plan your journey ahead of time. https://bit.ly/2UA6Ak9
-- SMRT</t>
-  </si>
-  <si>
-    <t>from 3 apr to 26 jul 2020 stations from woodlands north to woodlands south will close earlier at 10pm every friday saturday and sunday and open later at 630am every saturday and sunday please plan your journey ahead of time smrt</t>
-  </si>
-  <si>
-    <t>From 3 to 25 Apr 2020, 4 stations from Bedok to Paya Lebar will close earlier at about 11pm on selected Fridays and Saturdays. Please plan your journey ahead. https://bit.ly/2WXfJFo
-- SMRT</t>
-  </si>
-  <si>
-    <t>from 3 to 25 apr 2020 4 stations from bedok to paya lebar will close earlier at about 11pm on selected fridays and saturdays please plan your journey ahead smrt</t>
-  </si>
-  <si>
     <t>[NSL] UPDATE: Pls add 20mins train travel time from #Bishan to #YioChuKang due to a track point fault at #AngMoKio. Train svc is available.
 - SMRT</t>
   </si>
   <si>
     <t>nsl update pls add 20mins train travel time from to due to a track point fault at train svc is available smrt</t>
-  </si>
-  <si>
-    <t>[NSL] UPDATE: Free regular bus svcs btwn #Bishan and #Yishun. Our station staff will assist.
-- SMRT</t>
   </si>
   <si>
     <t>[NSL] UPDATE: Pls add 15mins train travel time from #Bishan to #YioChuKang due to a track point fault at #AngMoKio. Train svc is available.
@@ -1420,35 +1012,6 @@
   </si>
   <si>
     <t>BPL, NEL, EWL, CCL, NSL, DTL</t>
-  </si>
-  <si>
-    <t>CNY Eve Train Extension
-24 JAN
-Last train timings
-NSL
-- towards Jurong East: departs City Hall at 2.09am
-- towards Marina South Pier: departs City Hall at 1.58am
-EWL
-- towards Pasir Ris: departs City Hall at 2.14am
-- towards Tuas Link: departs City Hall at 1.59am
-CCL
-- towards Harbourfront: departs Dhoby Ghaut at 1.28am
-- towards Dhoby Ghaut: departs Harbourfront at 1.15am
-NEL
-- towards Both Directions: departs Chinatown at 2.00am
-DTL
-- towards Expo: departs Chinatown at 2.05am
-- towards Bukit Panjang: departs Chinatown at 2.03am
-SKLRT
-- departs Sengkang at 2.31am
-PGLRT
-- departs Punggol at 2.33am
-BPLRT
-- departs Choa Chu Kang at 11.30pm ⚠️ (no extension)
-Some bus services have been extended as well. We wish everyone a prosperous CNY! 🍊🍊🧧</t>
-  </si>
-  <si>
-    <t>cny eve train extension 24 jan last train timings nsl towards jurong east departs city hall at 209am towards marina south pier departs city hall at 158am ewl towards pasir ris departs city hall at 214am towards tuas link departs city hall at 159am ccl towards harbourfront departs dhoby ghaut at 128am towards dhoby ghaut departs harbourfront at 115am nel towards both directions departs chinatown at 200am dtl towards expo departs chinatown at 205am towards bukit panjang departs chinatown at 203am sklrt departs sengkang at 231am pglrt departs punggol at 233am bplrt departs choa chu kang at 1130pm no extension some bus services have been extended as well we wish everyone a prosperous cny</t>
   </si>
   <si>
     <t>Service hours on DTL, NEL, Sengkang-Punggol LRT and 22 selected bus services - 60A, 63M, 181, 222, 225G, 228, 229, 232, 238, 240, 241, 243G, 261, 269, 291, 292, 293, 315, 325, 410W, 804 and 812 - will be extended on Chinese New Year’s Eve, 24 Jan 2020. http://bit.ly/2NzMd2Q
@@ -1538,19 +1101,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1560,42 +1123,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1785,20 +1355,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD137"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="190.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="139.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,13 +1391,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>44750.44815972223</v>
+        <v>44750.448159722233</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1838,7 +1420,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>44750.448125</v>
+        <v>44750.448125000003</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1878,7 +1460,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,13 +1471,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>44750.43923611111</v>
+        <v>44750.439236111109</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="3">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1918,7 +1500,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,13 +1511,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>44750.42059027778</v>
+        <v>44750.420590277783</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1958,7 +1540,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1969,13 +1551,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>44750.42054398148</v>
+        <v>44750.420543981483</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1998,7 +1580,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2009,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>44748.10456018519</v>
+        <v>44748.104560185187</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2038,7 +1620,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2049,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>44748.08445601852</v>
+        <v>44748.084456018521</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="3">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2078,7 +1660,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2089,13 +1671,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>44748.07483796297</v>
+        <v>44748.074837962973</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="3">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2118,7 +1700,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,13 +1711,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>44748.05337962963</v>
+        <v>44748.053379629629</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="3">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2158,7 +1740,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2169,13 +1751,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>44748.04233796296</v>
+        <v>44748.042337962957</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="3">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2198,7 +1780,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,7 +1797,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2238,7 +1820,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +1837,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="3">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2278,24 +1860,24 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>44748.02134259259</v>
+        <v>44732.249050925922</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2318,24 +1900,24 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>44746.28311342592</v>
+        <v>44732.24900462963</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3">
-        <v>235.0</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2358,24 +1940,24 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>44732.24905092592</v>
+        <v>44732.238518518519</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3">
-        <v>93.0</v>
+        <v>193</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2398,24 +1980,24 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>44732.24900462963</v>
+        <v>44709.080636574072</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3">
-        <v>136.0</v>
+        <v>220</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2438,24 +2020,24 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>44732.23851851852</v>
+        <v>44709.058078703703</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3">
-        <v>193.0</v>
+        <v>177</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2478,22 +2060,24 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>44712.31628472222</v>
+        <v>44709.049120370371</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3">
-        <v>231.0</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2516,24 +2100,24 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>44709.08063657407</v>
+        <v>44708.989108796297</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
-        <v>220.0</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2556,24 +2140,24 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>44709.0580787037</v>
+        <v>44708.979525462957</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
-        <v>177.0</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2596,9 +2180,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>51</v>
@@ -2607,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>44709.04912037037</v>
+        <v>44708.959340277783</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="3">
-        <v>106.0</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2636,9 +2220,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -2647,13 +2231,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>44708.9891087963</v>
+        <v>44708.940196759257</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="3">
-        <v>205.0</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2676,24 +2260,24 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>44708.97952546296</v>
+        <v>44705.066747685189</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3">
-        <v>162.0</v>
+        <v>171</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2716,24 +2300,24 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>44708.95934027778</v>
+        <v>44652.173159722217</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
-        <v>137.0</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2756,24 +2340,24 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>44708.94019675926</v>
+        <v>44652.173101851848</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3">
-        <v>89.0</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2796,9 +2380,9 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
@@ -2807,13 +2391,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>44705.06674768519</v>
+        <v>44652.161354166667</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="3">
-        <v>171.0</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2836,22 +2420,24 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>44694.12371527778</v>
+        <v>44605.921319444453</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="3">
-        <v>236.0</v>
+        <v>116</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2874,22 +2460,24 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="2">
-        <v>44681.12640046296</v>
+        <v>44584.313634259262</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="3">
-        <v>686.0</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2912,22 +2500,24 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
-        <v>44679.09104166667</v>
+        <v>44486.174444444441</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
-        <v>261.0</v>
+        <v>163</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2950,24 +2540,24 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>44676.31782407407</v>
+        <v>44471.989155092589</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3">
-        <v>221.0</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2990,24 +2580,24 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2">
-        <v>44652.18501157407</v>
+        <v>44432.99015046296</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="3">
-        <v>143.0</v>
+        <v>153</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3030,24 +2620,24 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>44652.17315972222</v>
+        <v>44432.975451388891</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="3">
-        <v>153.0</v>
+        <v>146</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3070,24 +2660,24 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>44652.17310185185</v>
+        <v>44406.077499999999</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="3">
-        <v>66.0</v>
+        <v>190</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3110,24 +2700,24 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>44652.16135416667</v>
+        <v>44406.066805555558</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3">
-        <v>129.0</v>
+        <v>184</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3150,24 +2740,24 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>44605.92131944445</v>
+        <v>44406.057824074072</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="3">
-        <v>116.0</v>
+        <v>133</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3190,24 +2780,24 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>44584.32320601852</v>
+        <v>44406.057766203703</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F36" s="3">
-        <v>148.0</v>
+        <v>178</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3230,24 +2820,24 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2">
-        <v>44584.31363425926</v>
+        <v>44337.401724537027</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="3">
-        <v>135.0</v>
+        <v>211</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3270,24 +2860,24 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44336.970312500001</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2">
-        <v>44583.72931712963</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F38" s="3">
-        <v>146.0</v>
+        <v>175</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3310,22 +2900,24 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
-        <v>44581.15299768518</v>
+        <v>44336.959189814806</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="3">
-        <v>207.0</v>
+        <v>270</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3348,22 +2940,24 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="2">
-        <v>44561.12530092592</v>
+        <v>44336.915833333333</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="3">
-        <v>758.0</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3386,24 +2980,24 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
-        <v>44547.08871527778</v>
+        <v>44325.019918981481</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F41" s="3">
-        <v>274.0</v>
+        <v>199</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3426,24 +3020,24 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
-        <v>44532.08339120371</v>
+        <v>44325.009664351863</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F42" s="3">
-        <v>276.0</v>
+        <v>199</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3466,24 +3060,24 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
-        <v>44486.17444444444</v>
+        <v>44324.997870370367</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>163.0</v>
+        <v>205</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3506,9 +3100,9 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>101</v>
@@ -3517,13 +3111,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="2">
-        <v>44471.98915509259</v>
+        <v>44284.017060185193</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F44" s="3">
-        <v>186.0</v>
+        <v>234</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3546,9 +3140,9 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>103</v>
@@ -3557,13 +3151,13 @@
         <v>2</v>
       </c>
       <c r="D45" s="2">
-        <v>44432.99015046296</v>
+        <v>44283.984467592592</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F45" s="3">
-        <v>153.0</v>
+        <v>191</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3586,24 +3180,24 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="2">
-        <v>44432.97545138889</v>
+        <v>44283.965648148151</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="3">
-        <v>146.0</v>
+        <v>202</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3626,24 +3220,24 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="2">
-        <v>44406.0775</v>
+        <v>44283.954606481479</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="3">
-        <v>190.0</v>
+        <v>144</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3666,24 +3260,24 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="2">
-        <v>44406.06680555556</v>
+        <v>44283.954594907409</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3">
-        <v>184.0</v>
+        <v>147</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3706,24 +3300,24 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="2">
-        <v>44406.05782407407</v>
+        <v>44283.95453703704</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F49" s="3">
-        <v>133.0</v>
+        <v>167</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3746,24 +3340,24 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2">
-        <v>44406.0577662037</v>
+        <v>44283.933553240742</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F50" s="3">
-        <v>178.0</v>
+        <v>47</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3786,24 +3380,24 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2">
-        <v>44337.40172453703</v>
+        <v>44283.912812499999</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F51" s="3">
-        <v>211.0</v>
+        <v>170</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3826,24 +3420,24 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
-        <v>44336.9703125</v>
+        <v>44282.974270833343</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F52" s="3">
-        <v>175.0</v>
+        <v>137</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3866,24 +3460,24 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2">
-        <v>44336.95918981481</v>
+        <v>44274.207442129627</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F53" s="3">
-        <v>270.0</v>
+        <v>114</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3906,24 +3500,24 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2">
-        <v>44336.91583333333</v>
+        <v>44274.08053240741</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F54" s="3">
-        <v>85.0</v>
+        <v>92</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3946,24 +3540,24 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>44330.31938657408</v>
+        <v>44274.026909722219</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="3">
-        <v>222.0</v>
+        <v>93</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3986,24 +3580,24 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
-        <v>44325.01991898148</v>
+        <v>44259.169560185182</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56" s="3">
-        <v>199.0</v>
+        <v>270</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4026,24 +3620,24 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2">
-        <v>44325.00966435186</v>
+        <v>44252.611909722233</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" s="3">
-        <v>199.0</v>
+        <v>165</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4066,24 +3660,24 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44252.601145833331</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44324.99787037037</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F58" s="3">
-        <v>205.0</v>
+        <v>165</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4106,24 +3700,24 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44252.590115740742</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="2">
-        <v>44307.26546296296</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="3">
         <v>134</v>
-      </c>
-      <c r="F59" s="3">
-        <v>276.0</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4146,24 +3740,24 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44252.581122685187</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44303.94597222222</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F60" s="3">
-        <v>279.0</v>
+        <v>141</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -4186,24 +3780,24 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44252.176562499997</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44300.19467592592</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F61" s="3">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4226,24 +3820,24 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44245.180405092593</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2">
-        <v>44298.18222222223</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F62" s="3">
-        <v>241.0</v>
+        <v>279</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4266,24 +3860,24 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44231.174537037034</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="2">
-        <v>44290.06068287037</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F63" s="3">
-        <v>238.0</v>
+        <v>276</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4306,24 +3900,24 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44224.327835648153</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2">
-        <v>44284.01706018519</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F64" s="3">
-        <v>234.0</v>
+        <v>277</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -4346,24 +3940,24 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44217.168993055559</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2">
-        <v>44283.98446759259</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F65" s="3">
-        <v>191.0</v>
+        <v>278</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4386,24 +3980,24 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44215.183993055558</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2">
-        <v>44283.96564814815</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F66" s="3">
-        <v>202.0</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4426,24 +4020,24 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2">
-        <v>44283.95460648148</v>
+        <v>44204.647627314807</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F67" s="3">
-        <v>144.0</v>
+        <v>115</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -4466,24 +4060,24 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="2">
-        <v>44283.95459490741</v>
+        <v>44204.647604166668</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F68" s="3">
-        <v>147.0</v>
+        <v>114</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4506,24 +4100,24 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2">
-        <v>44283.95453703704</v>
+        <v>44204.636678240742</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F69" s="3">
-        <v>167.0</v>
+        <v>76</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4546,24 +4140,24 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="2">
-        <v>44283.93355324074</v>
+        <v>44204.62704861111</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F70" s="3">
-        <v>47.0</v>
+        <v>71</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4586,24 +4180,24 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
-        <v>44283.9128125</v>
+        <v>44203.096562500003</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F71" s="3">
-        <v>170.0</v>
+        <v>277</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4626,22 +4220,24 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
-        <v>44283.06356481482</v>
+        <v>44195.067824074067</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F72" s="3">
-        <v>167.0</v>
+        <v>274</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -4664,22 +4260,24 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
-        <v>44282.98384259259</v>
+        <v>44193.635069444441</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F73" s="3">
-        <v>153.0</v>
+        <v>167</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -4702,24 +4300,24 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
-        <v>44282.97427083334</v>
+        <v>44193.517337962963</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F74" s="3">
-        <v>137.0</v>
+        <v>190</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -4742,24 +4340,24 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44193.505497685182</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="3">
         <v>167</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="2">
-        <v>44274.20744212963</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="3">
-        <v>114.0</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4782,24 +4380,24 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
-        <v>44274.08053240741</v>
+        <v>44193.477766203701</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F76" s="3">
-        <v>92.0</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -4822,24 +4420,24 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
-        <v>44274.02690972222</v>
+        <v>44193.456250000003</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F77" s="3">
-        <v>93.0</v>
+        <v>173</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -4862,24 +4460,24 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2">
-        <v>44259.16956018518</v>
+        <v>44169.131712962961</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F78" s="3">
-        <v>270.0</v>
+        <v>150</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -4902,22 +4500,24 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="2">
-        <v>44257.55025462963</v>
+        <v>44169.035590277781</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F79" s="3">
-        <v>241.0</v>
+        <v>151</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -4940,24 +4540,24 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
-        <v>44252.86957175926</v>
+        <v>44169.026238425933</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F80" s="3">
-        <v>51.0</v>
+        <v>208</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4980,24 +4580,24 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="2">
-        <v>44252.69427083333</v>
+        <v>44169.014907407407</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F81" s="3">
-        <v>178.0</v>
+        <v>133</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5020,24 +4620,24 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="2">
-        <v>44252.61190972223</v>
+        <v>44168.994837962957</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F82" s="3">
-        <v>165.0</v>
+        <v>161</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5060,24 +4660,24 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="2">
-        <v>44252.60114583333</v>
+        <v>44168.984456018523</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F83" s="3">
-        <v>165.0</v>
+        <v>176</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -5100,24 +4700,24 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="2">
-        <v>44252.59011574074</v>
+        <v>44168.963796296302</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F84" s="3">
-        <v>134.0</v>
+        <v>133</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -5140,24 +4740,24 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="2">
-        <v>44252.58112268519</v>
+        <v>44168.952418981477</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F85" s="3">
-        <v>141.0</v>
+        <v>144</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5180,24 +4780,24 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2">
-        <v>44252.1765625</v>
+        <v>44168.931435185194</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F86" s="3">
-        <v>275.0</v>
+        <v>144</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5220,24 +4820,24 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2">
-        <v>44245.18040509259</v>
+        <v>44168.919525462959</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F87" s="3">
-        <v>279.0</v>
+        <v>153</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5260,24 +4860,24 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2">
-        <v>44231.17453703703</v>
+        <v>44159.948136574072</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F88" s="3">
-        <v>276.0</v>
+        <v>114</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5300,24 +4900,24 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2">
-        <v>44224.32783564815</v>
+        <v>44159.937337962961</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F89" s="3">
-        <v>277.0</v>
+        <v>76</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -5340,24 +4940,24 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D90" s="2">
-        <v>44217.16899305556</v>
+        <v>44118.590520833342</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F90" s="3">
-        <v>278.0</v>
+        <v>193</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -5380,24 +4980,24 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D91" s="2">
-        <v>44215.18399305556</v>
+        <v>44118.590451388889</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F91" s="3">
-        <v>131.0</v>
+        <v>189</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -5420,24 +5020,24 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D92" s="2">
-        <v>44210.09571759259</v>
+        <v>44118.56931712963</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F92" s="3">
-        <v>277.0</v>
+        <v>196</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5460,24 +5060,24 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>44204.64762731481</v>
+        <v>44118.569293981483</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F93" s="3">
-        <v>115.0</v>
+        <v>183</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5500,24 +5100,24 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D94" s="2">
-        <v>44204.64760416667</v>
+        <v>44118.559421296297</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F94" s="3">
-        <v>114.0</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5540,24 +5140,24 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="2">
-        <v>44204.63667824074</v>
+        <v>44118.559398148151</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F95" s="3">
-        <v>76.0</v>
+        <v>199</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -5580,24 +5180,24 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="2">
-        <v>44204.62704861111</v>
+        <v>44118.559374999997</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F96" s="3">
-        <v>71.0</v>
+        <v>187</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -5620,24 +5220,24 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2">
-        <v>44203.0965625</v>
+        <v>44118.548807870371</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F97" s="3">
-        <v>277.0</v>
+        <v>196</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5660,22 +5260,24 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C98" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D98" s="2">
-        <v>44195.11616898148</v>
+        <v>44118.534861111111</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F98" s="3">
-        <v>581.0</v>
+        <v>193</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5698,24 +5300,24 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D99" s="2">
-        <v>44195.06782407407</v>
+        <v>44118.534710648149</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F99" s="3">
-        <v>274.0</v>
+        <v>185</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5738,24 +5340,24 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2">
-        <v>44193.63506944444</v>
+        <v>44089.497986111113</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F100" s="3">
-        <v>167.0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -5778,24 +5380,24 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44089.488819444443</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2">
-        <v>44193.51733796296</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F101" s="3">
-        <v>190.0</v>
+        <v>201</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -5818,24 +5420,24 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D102" s="2">
-        <v>44193.50549768518</v>
+        <v>44089.47755787037</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F102" s="3">
-        <v>167.0</v>
+        <v>231</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -5858,24 +5460,24 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D103" s="2">
-        <v>44193.4777662037</v>
+        <v>44089.46638888889</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F103" s="3">
-        <v>196.0</v>
+        <v>155</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5898,24 +5500,22 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>216</v>
-      </c>
+    <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
-        <v>44193.45625</v>
+        <v>44063.083912037036</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F104" s="3">
-        <v>173.0</v>
+        <v>142</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -5938,24 +5538,24 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
-        <v>44189.01980324074</v>
+        <v>44061.03328703704</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F105" s="3">
-        <v>261.0</v>
+        <v>260</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -5978,24 +5578,24 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2">
-        <v>44188.10962962963</v>
+        <v>44054.413530092592</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F106" s="3">
-        <v>280.0</v>
+        <v>75</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -6018,24 +5618,24 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D107" s="2">
-        <v>44182.01576388889</v>
+        <v>44054.401747685188</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F107" s="3">
-        <v>280.0</v>
+        <v>114</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6058,24 +5658,24 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D108" s="2">
-        <v>44175.00708333333</v>
+        <v>44054.389976851853</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F108" s="3">
-        <v>279.0</v>
+        <v>78</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6098,24 +5698,24 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
-        <v>44169.13171296296</v>
+        <v>44054.155706018522</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F109" s="3">
-        <v>150.0</v>
+        <v>261</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6138,24 +5738,24 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
-        <v>44169.03559027778</v>
+        <v>44043.471932870372</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F110" s="3">
-        <v>151.0</v>
+        <v>258</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6178,24 +5778,24 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>44169.02623842593</v>
+        <v>44038.50540509259</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F111" s="3">
-        <v>208.0</v>
+        <v>170</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -6218,24 +5818,24 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2">
-        <v>44169.01490740741</v>
+        <v>44038.505358796298</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F112" s="3">
-        <v>133.0</v>
+        <v>148</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -6258,24 +5858,24 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="2">
-        <v>44168.99483796296</v>
+        <v>44038.493773148148</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F113" s="3">
-        <v>161.0</v>
+        <v>187</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6298,24 +5898,24 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2">
-        <v>44168.98445601852</v>
+        <v>44038.484270833331</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F114" s="3">
-        <v>176.0</v>
+        <v>161</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -6338,24 +5938,24 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
-        <v>44168.9637962963</v>
+        <v>44038.383368055547</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F115" s="3">
-        <v>133.0</v>
+        <v>243</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -6378,24 +5978,24 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
-        <v>44168.95241898148</v>
+        <v>44038.267743055563</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F116" s="3">
-        <v>144.0</v>
+        <v>231</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -6418,24 +6018,24 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
-        <v>44168.93143518519</v>
+        <v>44035.089525462958</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F117" s="3">
-        <v>144.0</v>
+        <v>252</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6458,24 +6058,24 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>44168.91952546296</v>
+        <v>44025.061712962961</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F118" s="3">
-        <v>153.0</v>
+        <v>114</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6498,24 +6098,24 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D119" s="2">
-        <v>44168.04302083333</v>
+        <v>44025.043032407397</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F119" s="3">
-        <v>267.0</v>
+        <v>78</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -6538,24 +6138,24 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D120" s="2">
-        <v>44159.94813657407</v>
+        <v>44004.05872685185</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="F120" s="3">
-        <v>114.0</v>
+        <v>71</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -6578,24 +6178,24 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D121" s="2">
-        <v>44159.93733796296</v>
+        <v>43895.022534722222</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F121" s="3">
-        <v>76.0</v>
+        <v>109</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -6618,24 +6218,24 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="2">
-        <v>44154.16590277778</v>
+        <v>43895.012071759258</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F122" s="3">
-        <v>251.0</v>
+        <v>109</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -6658,24 +6258,24 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>44118.59052083334</v>
+        <v>43895.001516203702</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F123" s="3">
-        <v>193.0</v>
+        <v>86</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -6698,24 +6298,24 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="2">
-        <v>44118.59045138889</v>
+        <v>43894.990914351853</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F124" s="3">
-        <v>189.0</v>
+        <v>109</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -6738,24 +6338,24 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="2">
-        <v>44118.56931712963</v>
+        <v>43894.969953703701</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F125" s="3">
-        <v>196.0</v>
+        <v>169</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -6778,24 +6378,24 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="2">
-        <v>44118.56929398148</v>
+        <v>43894.960682870369</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F126" s="3">
-        <v>183.0</v>
+        <v>84</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -6818,24 +6418,22 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
-        <v>44118.5594212963</v>
+        <v>43888.108958333331</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F127" s="3">
-        <v>184.0</v>
+        <v>215</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -6858,24 +6456,22 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
-        <v>44118.55939814815</v>
+        <v>43888.108900462961</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F128" s="3">
-        <v>199.0</v>
+        <v>201</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -6898,24 +6494,22 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
-        <v>44118.559375</v>
+        <v>43888.022800925923</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F129" s="3">
-        <v>187.0</v>
+        <v>272</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -6938,24 +6532,24 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
-        <v>44118.54880787037</v>
+        <v>43887.910937499997</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F130" s="3">
-        <v>196.0</v>
+        <v>164</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -6978,24 +6572,24 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
-        <v>44118.53486111111</v>
+        <v>43868.922303240739</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F131" s="3">
-        <v>193.0</v>
+        <v>226</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7018,24 +6612,24 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="2">
-        <v>44118.53471064815</v>
+        <v>43857.069155092591</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F132" s="3">
-        <v>185.0</v>
+        <v>86</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -7058,24 +6652,24 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="2">
-        <v>44092.25190972222</v>
+        <v>43857.006736111107</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F133" s="3">
-        <v>177.0</v>
+        <v>155</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -7098,24 +6692,24 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D134" s="2">
-        <v>44089.49798611111</v>
+        <v>43856.985868055563</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F134" s="3">
-        <v>200.0</v>
+        <v>192</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -7138,24 +6732,24 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="2">
-        <v>44089.48881944444</v>
+        <v>43856.97556712963</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F135" s="3">
-        <v>201.0</v>
+        <v>186</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -7178,24 +6772,24 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="2">
-        <v>44089.47755787037</v>
+        <v>43856.95584490741</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F136" s="3">
-        <v>231.0</v>
+        <v>187</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -7218,24 +6812,24 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
-        <v>44089.46638888889</v>
+        <v>43854.047280092593</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F137" s="3">
-        <v>155.0</v>
+        <v>234</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -7258,24 +6852,24 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
-        <v>44075.19802083333</v>
+        <v>43847.512557870366</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F138" s="3">
-        <v>278.0</v>
+        <v>234</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -7298,24 +6892,24 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
-        <v>44068.04443287037</v>
+        <v>43838.463842592602</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F139" s="3">
-        <v>267.0</v>
+        <v>279</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -7338,22 +6932,22 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140">
-      <c r="A140" s="1"/>
+    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="B140" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C140" s="1"/>
       <c r="D140" s="2">
-        <v>44063.08391203704</v>
+        <v>43830.088842592602</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F140" s="3">
-        <v>142.0</v>
+        <v>644</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -7376,24 +6970,24 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
-        <v>44061.03328703704</v>
+        <v>43825.109583333331</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F141" s="3">
-        <v>260.0</v>
+        <v>269</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -7416,24 +7010,22 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C142" s="1"/>
       <c r="D142" s="2">
-        <v>44054.41353009259</v>
+        <v>43823.220312500001</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F142" s="3">
-        <v>75.0</v>
+        <v>635</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -7456,24 +7048,24 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
-        <v>44054.40174768519</v>
+        <v>43819.276296296302</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F143" s="3">
-        <v>114.0</v>
+        <v>231</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -7496,1869 +7088,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="2">
-        <v>44054.38997685185</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F144" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="2">
-        <v>44054.15570601852</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F145" s="3">
-        <v>261.0</v>
-      </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D146" s="2">
-        <v>44043.47193287037</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F146" s="3">
-        <v>258.0</v>
-      </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="2">
-        <v>44038.50540509259</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F147" s="3">
-        <v>170.0</v>
-      </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="2">
-        <v>44038.5053587963</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F148" s="3">
-        <v>148.0</v>
-      </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="2">
-        <v>44038.49377314815</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F149" s="3">
-        <v>187.0</v>
-      </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-      <c r="X149" s="1"/>
-      <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="2">
-        <v>44038.48427083333</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F150" s="3">
-        <v>161.0</v>
-      </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" s="2">
-        <v>44038.38336805555</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F151" s="3">
-        <v>243.0</v>
-      </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D152" s="2">
-        <v>44038.26774305556</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F152" s="3">
-        <v>231.0</v>
-      </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153" s="2">
-        <v>44035.08952546296</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F153" s="3">
-        <v>252.0</v>
-      </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="2">
-        <v>44027.18912037037</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F154" s="3">
-        <v>219.0</v>
-      </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
-      <c r="Y154" s="1"/>
-      <c r="Z154" s="1"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="2">
-        <v>44025.06171296296</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F155" s="3">
-        <v>114.0</v>
-      </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
-      <c r="Y155" s="1"/>
-      <c r="Z155" s="1"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="2">
-        <v>44025.0430324074</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F156" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
-      <c r="Y156" s="1"/>
-      <c r="Z156" s="1"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="2">
-        <v>44025.04297453703</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F157" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-      <c r="X157" s="1"/>
-      <c r="Y157" s="1"/>
-      <c r="Z157" s="1"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2">
-        <v>44004.06837962963</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F158" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="Y158" s="1"/>
-      <c r="Z158" s="1"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="2">
-        <v>44004.05872685185</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F159" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D160" s="2">
-        <v>43942.18190972223</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F160" s="3">
-        <v>282.0</v>
-      </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D161" s="2">
-        <v>43937.12547453704</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F161" s="3">
-        <v>1184.0</v>
-      </c>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-      <c r="Y161" s="1"/>
-      <c r="Z161" s="1"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="2">
-        <v>43936.07142361111</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F162" s="3">
-        <v>173.0</v>
-      </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
-      <c r="Y162" s="1"/>
-      <c r="Z162" s="1"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="2">
-        <v>43935.58069444444</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F163" s="3">
-        <v>222.0</v>
-      </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-      <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="2">
-        <v>43923.37342592593</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F164" s="3">
-        <v>228.0</v>
-      </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
-      <c r="Y164" s="1"/>
-      <c r="Z164" s="1"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D165" s="2">
-        <v>43921.2844212963</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F165" s="3">
-        <v>160.0</v>
-      </c>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
-      <c r="Y165" s="1"/>
-      <c r="Z165" s="1"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="2">
-        <v>43895.02253472222</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F166" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-      <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="2">
-        <v>43895.0121412037</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F167" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="2">
-        <v>43895.01207175926</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F168" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D169" s="2">
-        <v>43895.0015162037</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F169" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-      <c r="Y169" s="1"/>
-      <c r="Z169" s="1"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="2">
-        <v>43894.99091435185</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F170" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="2">
-        <v>43894.9699537037</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F171" s="3">
-        <v>169.0</v>
-      </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2">
-        <v>43894.96068287037</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F172" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D173" s="2">
-        <v>43888.10895833333</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F173" s="3">
-        <v>215.0</v>
-      </c>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
-      <c r="Z173" s="1"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D174" s="2">
-        <v>43888.10890046296</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F174" s="3">
-        <v>201.0</v>
-      </c>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="2">
-        <v>43888.02280092592</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F175" s="3">
-        <v>272.0</v>
-      </c>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
-      <c r="Y175" s="1"/>
-      <c r="Z175" s="1"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="2">
-        <v>43887.9109375</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F176" s="3">
-        <v>164.0</v>
-      </c>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
-      <c r="Y176" s="1"/>
-      <c r="Z176" s="1"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D177" s="2">
-        <v>43868.92230324074</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F177" s="3">
-        <v>226.0</v>
-      </c>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="2">
-        <v>43857.06915509259</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F178" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="2">
-        <v>43857.00673611111</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F179" s="3">
-        <v>155.0</v>
-      </c>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="2">
-        <v>43856.98586805556</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F180" s="3">
-        <v>192.0</v>
-      </c>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="2">
-        <v>43856.97556712963</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F181" s="3">
-        <v>186.0</v>
-      </c>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="2">
-        <v>43856.95584490741</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F182" s="3">
-        <v>187.0</v>
-      </c>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
-      <c r="Y182" s="1"/>
-      <c r="Z182" s="1"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C183" s="1"/>
-      <c r="D183" s="2">
-        <v>43854.08703703704</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F183" s="3">
-        <v>692.0</v>
-      </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-      <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D184" s="2">
-        <v>43854.04728009259</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F184" s="3">
-        <v>234.0</v>
-      </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-      <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D185" s="2">
-        <v>43847.51255787037</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F185" s="3">
-        <v>234.0</v>
-      </c>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
-      <c r="Y185" s="1"/>
-      <c r="Z185" s="1"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D186" s="2">
-        <v>43838.4638425926</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F186" s="3">
-        <v>279.0</v>
-      </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
-      <c r="Y186" s="1"/>
-      <c r="Z186" s="1"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C187" s="1"/>
-      <c r="D187" s="2">
-        <v>43830.0888425926</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F187" s="3">
-        <v>644.0</v>
-      </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-      <c r="X187" s="1"/>
-      <c r="Y187" s="1"/>
-      <c r="Z187" s="1"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="2">
-        <v>43825.10958333333</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F188" s="3">
-        <v>269.0</v>
-      </c>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-      <c r="X188" s="1"/>
-      <c r="Y188" s="1"/>
-      <c r="Z188" s="1"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C189" s="1"/>
-      <c r="D189" s="2">
-        <v>43823.2203125</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F189" s="3">
-        <v>635.0</v>
-      </c>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-      <c r="Y189" s="1"/>
-      <c r="Z189" s="1"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="2">
-        <v>43819.2762962963</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F190" s="3">
-        <v>231.0</v>
-      </c>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-      <c r="X190" s="1"/>
-      <c r="Y190" s="1"/>
-      <c r="Z190" s="1"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>